--- a/address-book-web-tests/address-book-web-tests/contacts.xlsx
+++ b/address-book-web-tests/address-book-web-tests/contacts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuch\Source\Repos\csharp_training\address-book-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuch\Source\Repos\csharp_training\address-book-web-tests\address-book-web-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,175 +24,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t>aQ@RNIaJ32!</t>
-  </si>
-  <si>
-    <t>;8*^YLO@S/"`</t>
-  </si>
-  <si>
-    <t>B6:</t>
-  </si>
-  <si>
-    <t>6\C[@5,!PA&lt;5QNPB)W</t>
-  </si>
-  <si>
-    <t>S*[%3ZSQNAI,</t>
-  </si>
-  <si>
-    <t>GQ^6?N</t>
-  </si>
-  <si>
-    <t>#_])+3,"B3&gt;`LOHP&lt;X0!NE&gt;A'5)OaR:#&lt;\EU.R[ NQ/;"J</t>
-  </si>
-  <si>
-    <t>E`"B@/M.?A</t>
-  </si>
-  <si>
-    <t>"W*&gt;"R[;D</t>
-  </si>
-  <si>
-    <t>*TBK^04^5#?&gt;VDP</t>
-  </si>
-  <si>
-    <t>0[UQN&amp;4SP$W1O?AH&amp;P;</t>
-  </si>
-  <si>
-    <t>AXC_</t>
-  </si>
-  <si>
-    <t>1*&gt;^E!GN</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>GT$$@O\[;#/XCX8&amp;)E&gt;9</t>
-  </si>
-  <si>
-    <t>W8=]WW+"0DL^A!3L7LS</t>
-  </si>
-  <si>
-    <t>IE6!3[&amp;-\&gt;)G(HQ&lt;H(J</t>
-  </si>
-  <si>
-    <t>QX+AEZ"W%;SZL&gt;P2"&lt;I]P_'S:%VZ1X$/"Z,R:V&gt;:Y0(B</t>
-  </si>
-  <si>
-    <t>1\LY?:,@N)SR9</t>
-  </si>
-  <si>
-    <t>@$</t>
-  </si>
-  <si>
-    <t>F.7</t>
-  </si>
-  <si>
-    <t>WR2`Y-_/$@V</t>
-  </si>
-  <si>
-    <t>***!S&gt;YP6Q9</t>
-  </si>
-  <si>
-    <t>!P_6OK[+';):ZG-/0JJ^</t>
-  </si>
-  <si>
-    <t>2^6\(UQ?V</t>
-  </si>
-  <si>
-    <t>!Y`X&gt;a[6V\</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P!Q(,1J</t>
-  </si>
-  <si>
-    <t>M'=UQSI;GW</t>
-  </si>
-  <si>
-    <t>L2Z</t>
-  </si>
-  <si>
-    <t>B[</t>
-  </si>
-  <si>
-    <t>P/74T"Q1.4+ I?V</t>
-  </si>
-  <si>
-    <t>V[=+(K7</t>
-  </si>
-  <si>
-    <t>P`QPOWZ/.=</t>
-  </si>
-  <si>
-    <t>;)94;$?F50G/LW]$.%PH%XXEU2</t>
-  </si>
-  <si>
-    <t>7;]S+^;-=G"&amp;I&amp;"/)R%ZSSL*?W=</t>
-  </si>
-  <si>
-    <t>2U@)$].[5T#</t>
-  </si>
-  <si>
-    <t>&lt;PIH#J_`VI&lt;$-'</t>
-  </si>
-  <si>
-    <t>FPR56AW]H'["MX)</t>
-  </si>
-  <si>
-    <t>6N7&gt;#*$(UX&gt;PJ:&lt;]^,</t>
-  </si>
-  <si>
-    <t>*D?O.FT!A)H2(</t>
-  </si>
-  <si>
-    <t>O%6WJN&lt;MKA&gt;#(3</t>
-  </si>
-  <si>
-    <t>L_%A._8Xa)Y</t>
-  </si>
-  <si>
-    <t>*D`-F</t>
-  </si>
-  <si>
-    <t>#\4&amp;%4?</t>
-  </si>
-  <si>
-    <t>?Z`1</t>
-  </si>
-  <si>
-    <t>&gt;ASU</t>
-  </si>
-  <si>
-    <t>CR[</t>
-  </si>
-  <si>
-    <t>7/7OR&gt;2)L3YN%7</t>
-  </si>
-  <si>
-    <t>GYR# A?YP^;O8PUKV=</t>
-  </si>
-  <si>
-    <t>E&amp;P8C!]</t>
-  </si>
-  <si>
-    <t>.L9?9*Y/3ROZ.Y6HR</t>
-  </si>
-  <si>
-    <t>P[:XI#1</t>
-  </si>
-  <si>
-    <t>SUXB/"$+0-7?"E@ABZ&amp;C(MP(G-2"]7#5.I8$8R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+  <si>
+    <t>Email64</t>
+  </si>
+  <si>
+    <t>Email264</t>
+  </si>
+  <si>
+    <t>Email364</t>
+  </si>
+  <si>
+    <t>Firstname65</t>
+  </si>
+  <si>
+    <t>Lastname65</t>
+  </si>
+  <si>
+    <t>Middlename65</t>
+  </si>
+  <si>
+    <t>Nickname65</t>
+  </si>
+  <si>
+    <t>Title65</t>
+  </si>
+  <si>
+    <t>Company65</t>
+  </si>
+  <si>
+    <t>Address65</t>
+  </si>
+  <si>
+    <t>HomePhone65</t>
+  </si>
+  <si>
+    <t>MobilePhone65</t>
+  </si>
+  <si>
+    <t>WorkPhone65</t>
+  </si>
+  <si>
+    <t>Fax65</t>
+  </si>
+  <si>
+    <t>Homepage65</t>
+  </si>
+  <si>
+    <t>Address265</t>
+  </si>
+  <si>
+    <t>Phone265</t>
+  </si>
+  <si>
+    <t>Notes65</t>
+  </si>
+  <si>
+    <t>Firstname66</t>
+  </si>
+  <si>
+    <t>Lastname66</t>
+  </si>
+  <si>
+    <t>Middlename66</t>
+  </si>
+  <si>
+    <t>Nickname66</t>
+  </si>
+  <si>
+    <t>Title66</t>
+  </si>
+  <si>
+    <t>Company66</t>
+  </si>
+  <si>
+    <t>Address66</t>
+  </si>
+  <si>
+    <t>HomePhone66</t>
+  </si>
+  <si>
+    <t>MobilePhone66</t>
+  </si>
+  <si>
+    <t>WorkPhone66</t>
+  </si>
+  <si>
+    <t>Fax66</t>
+  </si>
+  <si>
+    <t>Homepage66</t>
+  </si>
+  <si>
+    <t>Address266</t>
+  </si>
+  <si>
+    <t>Phone266</t>
+  </si>
+  <si>
+    <t>Notes66</t>
+  </si>
+  <si>
+    <t>Firstname67</t>
+  </si>
+  <si>
+    <t>Lastname67</t>
+  </si>
+  <si>
+    <t>Middlename67</t>
+  </si>
+  <si>
+    <t>Nickname67</t>
+  </si>
+  <si>
+    <t>Title67</t>
+  </si>
+  <si>
+    <t>Company67</t>
+  </si>
+  <si>
+    <t>Address67</t>
+  </si>
+  <si>
+    <t>HomePhone67</t>
+  </si>
+  <si>
+    <t>MobilePhone67</t>
+  </si>
+  <si>
+    <t>WorkPhone67</t>
+  </si>
+  <si>
+    <t>Fax67</t>
+  </si>
+  <si>
+    <t>Homepage67</t>
+  </si>
+  <si>
+    <t>Address267</t>
+  </si>
+  <si>
+    <t>Phone267</t>
+  </si>
+  <si>
+    <t>Notes67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -221,7 +213,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,176 +496,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>